--- a/data/nzd0084/nzd0084.xlsx
+++ b/data/nzd0084/nzd0084.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F322"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7945,6 +7945,102 @@
       <c r="F322" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>327.18</v>
+      </c>
+      <c r="C323" t="n">
+        <v>324.7361538461539</v>
+      </c>
+      <c r="D323" t="n">
+        <v>333.0361538461539</v>
+      </c>
+      <c r="E323" t="n">
+        <v>337.1671428571428</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>345.0566666666667</v>
+      </c>
+      <c r="C324" t="n">
+        <v>339.0553846153846</v>
+      </c>
+      <c r="D324" t="n">
+        <v>340.0953846153847</v>
+      </c>
+      <c r="E324" t="n">
+        <v>345.2071428571429</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>338.36</v>
+      </c>
+      <c r="C325" t="n">
+        <v>339.1638461538461</v>
+      </c>
+      <c r="D325" t="n">
+        <v>340.1338461538461</v>
+      </c>
+      <c r="E325" t="n">
+        <v>347.2971428571428</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>339.7833333333334</v>
+      </c>
+      <c r="C326" t="n">
+        <v>336.7169230769231</v>
+      </c>
+      <c r="D326" t="n">
+        <v>340.1669230769231</v>
+      </c>
+      <c r="E326" t="n">
+        <v>344.1385714285714</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7959,7 +8055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11277,6 +11373,46 @@
       </c>
       <c r="B331" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -11445,28 +11581,28 @@
         <v>0.0839</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2245632307264349</v>
+        <v>0.2276570220104711</v>
       </c>
       <c r="J2" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02345640266711624</v>
+        <v>0.02471275655616989</v>
       </c>
       <c r="M2" t="n">
-        <v>7.89722041094393</v>
+        <v>7.868821431065143</v>
       </c>
       <c r="N2" t="n">
-        <v>100.0992720278047</v>
+        <v>99.32075936676013</v>
       </c>
       <c r="O2" t="n">
-        <v>10.00496237013437</v>
+        <v>9.965980100660452</v>
       </c>
       <c r="P2" t="n">
-        <v>330.8978562724087</v>
+        <v>330.8661508263821</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -11522,28 +11658,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3006905767955895</v>
+        <v>0.3082340609587599</v>
       </c>
       <c r="J3" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04144015263916512</v>
+        <v>0.0445557587710661</v>
       </c>
       <c r="M3" t="n">
-        <v>7.953028644180641</v>
+        <v>7.932833158570494</v>
       </c>
       <c r="N3" t="n">
-        <v>98.08830558764163</v>
+        <v>97.31964973567604</v>
       </c>
       <c r="O3" t="n">
-        <v>9.903954038041656</v>
+        <v>9.865072211376663</v>
       </c>
       <c r="P3" t="n">
-        <v>324.801676840945</v>
+        <v>324.7240129204824</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -11599,28 +11735,28 @@
         <v>0.0707</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2875524367025605</v>
+        <v>0.2980115863623265</v>
       </c>
       <c r="J4" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03657826681651832</v>
+        <v>0.0402451876690646</v>
       </c>
       <c r="M4" t="n">
-        <v>8.160335545102965</v>
+        <v>8.117628935864614</v>
       </c>
       <c r="N4" t="n">
-        <v>103.5725342017482</v>
+        <v>102.492703571346</v>
       </c>
       <c r="O4" t="n">
-        <v>10.17705921186215</v>
+        <v>10.12386801431874</v>
       </c>
       <c r="P4" t="n">
-        <v>327.4473165358632</v>
+        <v>327.3404786376246</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -11676,28 +11812,28 @@
         <v>0.0766</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2121792961415467</v>
+        <v>0.2229348137431221</v>
       </c>
       <c r="J5" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01940089073562656</v>
+        <v>0.02195698105690658</v>
       </c>
       <c r="M5" t="n">
-        <v>8.232170925500997</v>
+        <v>8.188634995524527</v>
       </c>
       <c r="N5" t="n">
-        <v>109.5118975507639</v>
+        <v>108.4182773149527</v>
       </c>
       <c r="O5" t="n">
-        <v>10.46479323975223</v>
+        <v>10.41240977463683</v>
       </c>
       <c r="P5" t="n">
-        <v>334.3498769382062</v>
+        <v>334.2408231490726</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -11734,7 +11870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F322"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21598,6 +21734,134 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-35.50794196628797,174.472662754406</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-35.50855862801617,174.4731468668288</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-35.509119991821926,174.47372822938306</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-35.50970280669027,174.4742718557182</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-35.50784996432394,174.4728245673379</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-35.50848493402192,174.473276479881</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-35.5090836612587,174.4737921275346</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-35.509661428342916,174.4743446318274</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-35.50788442863075,174.47276395164786</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-35.508484375823556,174.4732774616389</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-35.50908346331505,174.47379247567739</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-35.50965067202429,174.4743635499827</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-35.50787710346696,174.47277683512644</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-35.508496968935376,174.4732553128988</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-35.50908329308349,174.47379277508014</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-35.509666927812994,174.47433495938512</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0084/nzd0084.xlsx
+++ b/data/nzd0084/nzd0084.xlsx
@@ -11426,7 +11426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11517,35 +11517,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -11604,27 +11609,28 @@
       <c r="P2" t="n">
         <v>330.8661508263821</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.46970117689824 -35.50962575562575, 174.4780777269896 -35.504862946660715)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4697011768982</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.50962575562575</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4780777269896</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.50486294666072</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4738894519439</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.50724435114323</v>
       </c>
     </row>
@@ -11681,27 +11687,28 @@
       <c r="P3" t="n">
         <v>324.7240129204824</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.4702073957303 -35.5102298481807, 174.47858396512717 -35.505467028709496)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4702073957303</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.5102298481807</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4785839651272</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.5054670287095</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4743956804288</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.50784843844509</v>
       </c>
     </row>
@@ -11758,27 +11765,28 @@
       <c r="P4" t="n">
         <v>327.3404786376246</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.4707136145625 -35.51083393619125, 174.47909020326452 -35.506071106213604)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4707136145625</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.51083393619125</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4790902032645</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.5060711062136</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4749019089135</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.50845252120243</v>
       </c>
     </row>
@@ -11835,27 +11843,28 @@
       <c r="P5" t="n">
         <v>334.2408231490726</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.47121983339483 -35.51143801965742, 174.4795964414016 -35.506675179172994)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4712198333948</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.51143801965742</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4795964414016</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.50667517917299</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4754081373982</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.5090565994152</v>
       </c>
     </row>

--- a/data/nzd0084/nzd0084.xlsx
+++ b/data/nzd0084/nzd0084.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:F327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8039,6 +8039,30 @@
         <v>344.1385714285714</v>
       </c>
       <c r="F326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>340.9033333333333</v>
+      </c>
+      <c r="C327" t="n">
+        <v>338.6930769230769</v>
+      </c>
+      <c r="D327" t="n">
+        <v>346.5730769230769</v>
+      </c>
+      <c r="E327" t="n">
+        <v>348.2814285714285</v>
+      </c>
+      <c r="F327" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8055,7 +8079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11413,6 +11437,16 @@
       </c>
       <c r="B335" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -11586,28 +11620,28 @@
         <v>0.0839</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2276570220104711</v>
+        <v>0.2308225314087465</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02471275655616989</v>
+        <v>0.02557200688777872</v>
       </c>
       <c r="M2" t="n">
-        <v>7.868821431065143</v>
+        <v>7.857866568446757</v>
       </c>
       <c r="N2" t="n">
-        <v>99.32075936676013</v>
+        <v>99.04224047415083</v>
       </c>
       <c r="O2" t="n">
-        <v>9.965980100660452</v>
+        <v>9.951996808387291</v>
       </c>
       <c r="P2" t="n">
-        <v>330.8661508263821</v>
+        <v>330.833729760438</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11664,28 +11698,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3082340609587599</v>
+        <v>0.312811297226267</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0445557587710661</v>
+        <v>0.04612360715549468</v>
       </c>
       <c r="M3" t="n">
-        <v>7.932833158570494</v>
+        <v>7.927573204159192</v>
       </c>
       <c r="N3" t="n">
-        <v>97.31964973567604</v>
+        <v>97.11558544114284</v>
       </c>
       <c r="O3" t="n">
-        <v>9.865072211376663</v>
+        <v>9.854724016487872</v>
       </c>
       <c r="P3" t="n">
-        <v>324.7240129204824</v>
+        <v>324.676665029157</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11742,28 +11776,28 @@
         <v>0.0707</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2980115863623265</v>
+        <v>0.3064106491119281</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K4" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0402451876690646</v>
+        <v>0.04258701300001966</v>
       </c>
       <c r="M4" t="n">
-        <v>8.117628935864614</v>
+        <v>8.133737640999309</v>
       </c>
       <c r="N4" t="n">
-        <v>102.492703571346</v>
+        <v>102.5963038572287</v>
       </c>
       <c r="O4" t="n">
-        <v>10.12386801431874</v>
+        <v>10.12898335753538</v>
       </c>
       <c r="P4" t="n">
-        <v>327.3404786376246</v>
+        <v>327.2540433211543</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11820,28 +11854,28 @@
         <v>0.0766</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2229348137431221</v>
+        <v>0.2289762564328932</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02195698105690658</v>
+        <v>0.02326306128022604</v>
       </c>
       <c r="M5" t="n">
-        <v>8.188634995524527</v>
+        <v>8.188703115174686</v>
       </c>
       <c r="N5" t="n">
-        <v>108.4182773149527</v>
+        <v>108.2871049244342</v>
       </c>
       <c r="O5" t="n">
-        <v>10.41240977463683</v>
+        <v>10.40610901943825</v>
       </c>
       <c r="P5" t="n">
-        <v>334.2408231490726</v>
+        <v>334.1791065544472</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11879,7 +11913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:F327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21871,6 +21905,38 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-35.507871339402705,174.47278697294396</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-35.50848679864198,174.47327320039173</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-35.50905032357354,174.473850761714</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-35.50964560633394,174.47437245948814</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0084/nzd0084.xlsx
+++ b/data/nzd0084/nzd0084.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F327"/>
+  <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8063,6 +8063,78 @@
         <v>348.2814285714285</v>
       </c>
       <c r="F327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>349.7733333333334</v>
+      </c>
+      <c r="C328" t="n">
+        <v>339.7623076923077</v>
+      </c>
+      <c r="D328" t="n">
+        <v>332.5523076923077</v>
+      </c>
+      <c r="E328" t="n">
+        <v>326.7428571428572</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>343.6333333333333</v>
+      </c>
+      <c r="C329" t="n">
+        <v>342.8692307692308</v>
+      </c>
+      <c r="D329" t="n">
+        <v>341.6692307692308</v>
+      </c>
+      <c r="E329" t="n">
+        <v>332.9857142857143</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>327.3433333333334</v>
+      </c>
+      <c r="C330" t="n">
+        <v>322.2838461538461</v>
+      </c>
+      <c r="D330" t="n">
+        <v>323.1338461538461</v>
+      </c>
+      <c r="E330" t="n">
+        <v>325.7357142857143</v>
+      </c>
+      <c r="F330" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8079,7 +8151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11447,6 +11519,36 @@
       </c>
       <c r="B336" t="n">
         <v>-0.59</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -11620,28 +11722,28 @@
         <v>0.0839</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2308225314087465</v>
+        <v>0.2384607291422102</v>
       </c>
       <c r="J2" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K2" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02557200688777872</v>
+        <v>0.02760987276574767</v>
       </c>
       <c r="M2" t="n">
-        <v>7.857866568446757</v>
+        <v>7.880373692524262</v>
       </c>
       <c r="N2" t="n">
-        <v>99.04224047415083</v>
+        <v>99.06722834559871</v>
       </c>
       <c r="O2" t="n">
-        <v>9.951996808387291</v>
+        <v>9.953252149202225</v>
       </c>
       <c r="P2" t="n">
-        <v>330.833729760438</v>
+        <v>330.7552503511124</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11698,28 +11800,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.312811297226267</v>
+        <v>0.3177849689781471</v>
       </c>
       <c r="J3" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K3" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04612360715549468</v>
+        <v>0.04821426900069603</v>
       </c>
       <c r="M3" t="n">
-        <v>7.927573204159192</v>
+        <v>7.94128210570773</v>
       </c>
       <c r="N3" t="n">
-        <v>97.11558544114284</v>
+        <v>97.0161332879441</v>
       </c>
       <c r="O3" t="n">
-        <v>9.854724016487872</v>
+        <v>9.849676811344832</v>
       </c>
       <c r="P3" t="n">
-        <v>324.676665029157</v>
+        <v>324.6250656468732</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11776,28 +11878,28 @@
         <v>0.0707</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3064106491119281</v>
+        <v>0.300748975950781</v>
       </c>
       <c r="J4" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K4" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04258701300001966</v>
+        <v>0.04176648466900545</v>
       </c>
       <c r="M4" t="n">
-        <v>8.133737640999309</v>
+        <v>8.119640015338522</v>
       </c>
       <c r="N4" t="n">
-        <v>102.5963038572287</v>
+        <v>102.2193510374216</v>
       </c>
       <c r="O4" t="n">
-        <v>10.12898335753538</v>
+        <v>10.1103586008322</v>
       </c>
       <c r="P4" t="n">
-        <v>327.2540433211543</v>
+        <v>327.3127226985107</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11854,28 +11956,28 @@
         <v>0.0766</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2289762564328932</v>
+        <v>0.2043887424972931</v>
       </c>
       <c r="J5" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K5" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02326306128022604</v>
+        <v>0.01881546375066601</v>
       </c>
       <c r="M5" t="n">
-        <v>8.188703115174686</v>
+        <v>8.220329297042515</v>
       </c>
       <c r="N5" t="n">
-        <v>108.2871049244342</v>
+        <v>108.597105458458</v>
       </c>
       <c r="O5" t="n">
-        <v>10.40610901943825</v>
+        <v>10.42099349670932</v>
       </c>
       <c r="P5" t="n">
-        <v>334.1791065544472</v>
+        <v>334.4318071670143</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11913,7 +12015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F327"/>
+  <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21937,6 +22039,102 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-35.507825690043404,174.4728672607865</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-35.50848129583523,174.47328287871417</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-35.509122481950875,174.47372384974298</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-35.50975645584545,174.47417749752668</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-35.507857289492655,174.4728116838681</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-35.50846530602057,174.47331100154423</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-35.50907556140328,174.47380637353498</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-35.50972432664911,174.47423400642185</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-35.50794112569668,174.47266423284023</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-35.508571248816736,174.4731246693076</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-35.50917095431894,174.47363859640873</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-35.50976163915734,174.47416838109882</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0084/nzd0084.xlsx
+++ b/data/nzd0084/nzd0084.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0084/nzd0084.xlsx
+++ b/data/nzd0084/nzd0084.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:F331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8137,6 +8137,30 @@
       <c r="F330" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>331.0633333333333</v>
+      </c>
+      <c r="C331" t="n">
+        <v>328.5669230769231</v>
+      </c>
+      <c r="D331" t="n">
+        <v>335.3969230769231</v>
+      </c>
+      <c r="E331" t="n">
+        <v>331.0171428571429</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11549,6 +11573,16 @@
       </c>
       <c r="B339" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -11722,28 +11756,28 @@
         <v>0.0839</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2384607291422102</v>
+        <v>0.2342264782378324</v>
       </c>
       <c r="J2" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K2" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02760987276574767</v>
+        <v>0.02683925221048789</v>
       </c>
       <c r="M2" t="n">
-        <v>7.880373692524262</v>
+        <v>7.871510051759002</v>
       </c>
       <c r="N2" t="n">
-        <v>99.06722834559871</v>
+        <v>98.84638163119249</v>
       </c>
       <c r="O2" t="n">
-        <v>9.953252149202225</v>
+        <v>9.942151760619653</v>
       </c>
       <c r="P2" t="n">
-        <v>330.7552503511124</v>
+        <v>330.7989704974595</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11800,28 +11834,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3177849689781471</v>
+        <v>0.3147059271396194</v>
       </c>
       <c r="J3" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K3" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04821426900069603</v>
+        <v>0.04765631041126817</v>
       </c>
       <c r="M3" t="n">
-        <v>7.94128210570773</v>
+        <v>7.928287540733423</v>
       </c>
       <c r="N3" t="n">
-        <v>97.0161332879441</v>
+        <v>96.75152111414434</v>
       </c>
       <c r="O3" t="n">
-        <v>9.849676811344832</v>
+        <v>9.836235108726527</v>
       </c>
       <c r="P3" t="n">
-        <v>324.6250656468732</v>
+        <v>324.6571707295005</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11878,28 +11912,28 @@
         <v>0.0707</v>
       </c>
       <c r="I4" t="n">
-        <v>0.300748975950781</v>
+        <v>0.3010004722060733</v>
       </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K4" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04176648466900545</v>
+        <v>0.04213798361006516</v>
       </c>
       <c r="M4" t="n">
-        <v>8.119640015338522</v>
+        <v>8.094488055817758</v>
       </c>
       <c r="N4" t="n">
-        <v>102.2193510374216</v>
+        <v>101.8868004792289</v>
       </c>
       <c r="O4" t="n">
-        <v>10.1103586008322</v>
+        <v>10.09389917124344</v>
       </c>
       <c r="P4" t="n">
-        <v>327.3127226985107</v>
+        <v>327.3101134246151</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11956,28 +11990,28 @@
         <v>0.0766</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2043887424972931</v>
+        <v>0.1982833346156534</v>
       </c>
       <c r="J5" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K5" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01881546375066601</v>
+        <v>0.01782125728305273</v>
       </c>
       <c r="M5" t="n">
-        <v>8.220329297042515</v>
+        <v>8.22104597887459</v>
       </c>
       <c r="N5" t="n">
-        <v>108.597105458458</v>
+        <v>108.4842269388329</v>
       </c>
       <c r="O5" t="n">
-        <v>10.42099349670932</v>
+        <v>10.41557616931646</v>
       </c>
       <c r="P5" t="n">
-        <v>334.4318071670143</v>
+        <v>334.4946923282248</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12015,7 +12049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:F331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22135,6 +22169,38 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-35.50792198079618,174.47269790492544</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-35.50853891295595,174.47318154173811</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-35.50910784204911,174.47374959840198</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-35.50973445800945,174.4742161873747</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0084/nzd0084.xlsx
+++ b/data/nzd0084/nzd0084.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F331"/>
+  <dimension ref="A1:F334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8161,6 +8161,78 @@
       <c r="F331" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>348.89</v>
+      </c>
+      <c r="C332" t="n">
+        <v>345.9207692307692</v>
+      </c>
+      <c r="D332" t="n">
+        <v>348.6707692307692</v>
+      </c>
+      <c r="E332" t="n">
+        <v>338.6457142857143</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>334.0866666666666</v>
+      </c>
+      <c r="C333" t="n">
+        <v>326.0407692307692</v>
+      </c>
+      <c r="D333" t="n">
+        <v>329.8207692307692</v>
+      </c>
+      <c r="E333" t="n">
+        <v>330.1142857142857</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>329.81</v>
+      </c>
+      <c r="C334" t="n">
+        <v>326.2930769230769</v>
+      </c>
+      <c r="D334" t="n">
+        <v>326.9830769230769</v>
+      </c>
+      <c r="E334" t="n">
+        <v>332.5985714285715</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8175,7 +8247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11583,6 +11655,36 @@
       </c>
       <c r="B340" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -11756,28 +11858,28 @@
         <v>0.0839</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2342264782378324</v>
+        <v>0.235806963735321</v>
       </c>
       <c r="J2" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K2" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02683925221048789</v>
+        <v>0.0276295964961113</v>
       </c>
       <c r="M2" t="n">
-        <v>7.871510051759002</v>
+        <v>7.866389280062339</v>
       </c>
       <c r="N2" t="n">
-        <v>98.84638163119249</v>
+        <v>98.5327612443984</v>
       </c>
       <c r="O2" t="n">
-        <v>9.942151760619653</v>
+        <v>9.926366971072468</v>
       </c>
       <c r="P2" t="n">
-        <v>330.7989704974595</v>
+        <v>330.7827854426996</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11834,28 +11936,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3147059271396194</v>
+        <v>0.3146379200805414</v>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04765631041126817</v>
+        <v>0.0482883224289461</v>
       </c>
       <c r="M3" t="n">
-        <v>7.928287540733423</v>
+        <v>7.936803896731778</v>
       </c>
       <c r="N3" t="n">
-        <v>96.75152111414434</v>
+        <v>96.65343722838993</v>
       </c>
       <c r="O3" t="n">
-        <v>9.836235108726527</v>
+        <v>9.831247999536474</v>
       </c>
       <c r="P3" t="n">
-        <v>324.6571707295005</v>
+        <v>324.6580590558911</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11912,28 +12014,28 @@
         <v>0.0707</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3010004722060733</v>
+        <v>0.3011493744959923</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K4" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04213798361006516</v>
+        <v>0.04272845243362344</v>
       </c>
       <c r="M4" t="n">
-        <v>8.094488055817758</v>
+        <v>8.103180702609622</v>
       </c>
       <c r="N4" t="n">
-        <v>101.8868004792289</v>
+        <v>101.7986364102909</v>
       </c>
       <c r="O4" t="n">
-        <v>10.09389917124344</v>
+        <v>10.0895310302457</v>
       </c>
       <c r="P4" t="n">
-        <v>327.3101134246151</v>
+        <v>327.308762069965</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11990,28 +12092,28 @@
         <v>0.0766</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1982833346156534</v>
+        <v>0.1862875632328872</v>
       </c>
       <c r="J5" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K5" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01782125728305273</v>
+        <v>0.01605043533713579</v>
       </c>
       <c r="M5" t="n">
-        <v>8.22104597887459</v>
+        <v>8.19435988451683</v>
       </c>
       <c r="N5" t="n">
-        <v>108.4842269388329</v>
+        <v>107.8699222919304</v>
       </c>
       <c r="O5" t="n">
-        <v>10.41557616931646</v>
+        <v>10.38604459319959</v>
       </c>
       <c r="P5" t="n">
-        <v>334.4946923282248</v>
+        <v>334.6186748781196</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12049,7 +12151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F331"/>
+  <dimension ref="A1:F334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22201,6 +22303,102 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-35.50783023611119,174.47285926519564</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-35.50844960123728,174.47333862304026</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-35.50903952771589,174.47386974940179</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-35.509695197135976,174.47428523939</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-35.507906421269105,174.47272527102587</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-35.508551913812,174.47315867579584</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-35.50913653989373,174.47369912461565</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-35.509739104612166,174.47420801492194</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-35.50792843105041,174.47268656021038</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-35.508550615310114,174.47316095960528</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-35.50915114415529,174.47367343860392</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-35.50972631910116,174.47423050209582</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0084/nzd0084.xlsx
+++ b/data/nzd0084/nzd0084.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F334"/>
+  <dimension ref="A1:F336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8233,6 +8233,54 @@
       <c r="F334" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>333.4366666666667</v>
+      </c>
+      <c r="C335" t="n">
+        <v>319.08</v>
+      </c>
+      <c r="D335" t="n">
+        <v>322.93</v>
+      </c>
+      <c r="E335" t="n">
+        <v>327.9228571428571</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>329.9966666666666</v>
+      </c>
+      <c r="C336" t="n">
+        <v>323.2123076923077</v>
+      </c>
+      <c r="D336" t="n">
+        <v>321.3023076923077</v>
+      </c>
+      <c r="E336" t="n">
+        <v>321.5614285714286</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8247,7 +8295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11685,6 +11733,26 @@
       </c>
       <c r="B343" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -11858,28 +11926,28 @@
         <v>0.0839</v>
       </c>
       <c r="I2" t="n">
-        <v>0.235806963735321</v>
+        <v>0.2285836282846827</v>
       </c>
       <c r="J2" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0276295964961113</v>
+        <v>0.02634388830579915</v>
       </c>
       <c r="M2" t="n">
-        <v>7.866389280062339</v>
+        <v>7.84415418702857</v>
       </c>
       <c r="N2" t="n">
-        <v>98.5327612443984</v>
+        <v>98.0726060058781</v>
       </c>
       <c r="O2" t="n">
-        <v>9.926366971072468</v>
+        <v>9.903161414713894</v>
       </c>
       <c r="P2" t="n">
-        <v>330.7827854426996</v>
+        <v>330.8578934559938</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11936,28 +12004,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3146379200805414</v>
+        <v>0.2983145933260883</v>
       </c>
       <c r="J3" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0482883224289461</v>
+        <v>0.04386647637213581</v>
       </c>
       <c r="M3" t="n">
-        <v>7.936803896731778</v>
+        <v>7.955772457928681</v>
       </c>
       <c r="N3" t="n">
-        <v>96.65343722838993</v>
+        <v>96.91796367232732</v>
       </c>
       <c r="O3" t="n">
-        <v>9.831247999536474</v>
+        <v>9.844692157316414</v>
       </c>
       <c r="P3" t="n">
-        <v>324.6580590558911</v>
+        <v>324.8293979418949</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12014,28 +12082,28 @@
         <v>0.0707</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3011493744959923</v>
+        <v>0.2835590747406</v>
       </c>
       <c r="J4" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04272845243362344</v>
+        <v>0.03822240452566816</v>
       </c>
       <c r="M4" t="n">
-        <v>8.103180702609622</v>
+        <v>8.123013078846268</v>
       </c>
       <c r="N4" t="n">
-        <v>101.7986364102909</v>
+        <v>102.2076784792218</v>
       </c>
       <c r="O4" t="n">
-        <v>10.0895310302457</v>
+        <v>10.10978132697349</v>
       </c>
       <c r="P4" t="n">
-        <v>327.308762069965</v>
+        <v>327.4925212820359</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12092,28 +12160,28 @@
         <v>0.0766</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1862875632328872</v>
+        <v>0.1663562652876035</v>
       </c>
       <c r="J5" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01605043533713579</v>
+        <v>0.01285967525780796</v>
       </c>
       <c r="M5" t="n">
-        <v>8.19435988451683</v>
+        <v>8.23236698270439</v>
       </c>
       <c r="N5" t="n">
-        <v>107.8699222919304</v>
+        <v>108.6053005191574</v>
       </c>
       <c r="O5" t="n">
-        <v>10.38604459319959</v>
+        <v>10.42138668887962</v>
       </c>
       <c r="P5" t="n">
-        <v>334.6186748781196</v>
+        <v>334.8254159981035</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12151,7 +12219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F334"/>
+  <dimension ref="A1:F336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22399,6 +22467,70 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-35.507909766482165,174.47271938746604</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-35.50858773740376,174.473095669085</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-35.50917200341806,174.47363675124802</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-35.50975038291465,174.47418817861654</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-35.50792747037432,174.47268824984891</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-35.50856647049025,174.4731330734515</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-35.509180380374616,174.47362201781215</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-35.50978312232378,174.47413059640223</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0084/nzd0084.xlsx
+++ b/data/nzd0084/nzd0084.xlsx
@@ -11917,13 +11917,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0674</v>
+        <v>0.077</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0839</v>
+        <v>0.0935</v>
       </c>
       <c r="I2" t="n">
         <v>0.2285692065194355</v>
@@ -11995,13 +11995,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0582</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0697</v>
+        <v>0.0747</v>
       </c>
       <c r="I3" t="n">
         <v>0.2983229298329504</v>
@@ -12073,13 +12073,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0599</v>
+        <v>0.0641</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0707</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>0.2835702461980709</v>
@@ -12151,13 +12151,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0643</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0766</v>
+        <v>0.0931</v>
       </c>
       <c r="I5" t="n">
         <v>0.1663698070223001</v>

--- a/data/nzd0084/nzd0084.xlsx
+++ b/data/nzd0084/nzd0084.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F337"/>
+  <dimension ref="A1:F338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8529,6 +8529,30 @@
       <c r="F337" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>330.57</v>
+      </c>
+      <c r="C338" t="n">
+        <v>327.24</v>
+      </c>
+      <c r="D338" t="n">
+        <v>329.95</v>
+      </c>
+      <c r="E338" t="n">
+        <v>332.06</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8543,7 +8567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12011,6 +12035,16 @@
       </c>
       <c r="B346" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -12178,34 +12212,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.0771</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0936</v>
+        <v>0.0935</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2346746416901177</v>
+        <v>0.2305748435527153</v>
       </c>
       <c r="J2" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K2" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0648236159180221</v>
+        <v>0.0629778151580983</v>
       </c>
       <c r="M2" t="n">
-        <v>4.959607400920051</v>
+        <v>4.960487868005631</v>
       </c>
       <c r="N2" t="n">
-        <v>39.83718164144305</v>
+        <v>39.83456437907711</v>
       </c>
       <c r="O2" t="n">
-        <v>6.311670273504713</v>
+        <v>6.311462934936488</v>
       </c>
       <c r="P2" t="n">
-        <v>330.7084723276892</v>
+        <v>330.7515152941917</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12266,28 +12300,28 @@
         <v>0.0747</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3291017518029793</v>
+        <v>0.3253141547792809</v>
       </c>
       <c r="J3" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K3" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1117396447401723</v>
+        <v>0.1099513423792995</v>
       </c>
       <c r="M3" t="n">
-        <v>5.249385488147833</v>
+        <v>5.247786079201139</v>
       </c>
       <c r="N3" t="n">
-        <v>43.17072891433683</v>
+        <v>43.14128509178664</v>
       </c>
       <c r="O3" t="n">
-        <v>6.570443585811907</v>
+        <v>6.568202576944977</v>
       </c>
       <c r="P3" t="n">
-        <v>324.4353556843612</v>
+        <v>324.4751209133682</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12342,34 +12376,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0641</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="H4" t="n">
         <v>0.07580000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.318056783172979</v>
+        <v>0.3145861061413803</v>
       </c>
       <c r="J4" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K4" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1026096121798192</v>
+        <v>0.1010984339930244</v>
       </c>
       <c r="M4" t="n">
-        <v>5.305829332669139</v>
+        <v>5.304398217495359</v>
       </c>
       <c r="N4" t="n">
-        <v>44.36073080058629</v>
+        <v>44.31193629925829</v>
       </c>
       <c r="O4" t="n">
-        <v>6.660385184100563</v>
+        <v>6.656721137261068</v>
       </c>
       <c r="P4" t="n">
-        <v>326.9510086602853</v>
+        <v>326.9874466092296</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12420,34 +12454,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09320000000000001</v>
+        <v>0.0931</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1825839788186556</v>
+        <v>0.1778598375914784</v>
       </c>
       <c r="J5" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K5" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04044873093192891</v>
+        <v>0.0385888805830551</v>
       </c>
       <c r="M5" t="n">
-        <v>5.039383888107496</v>
+        <v>5.042960527156967</v>
       </c>
       <c r="N5" t="n">
-        <v>39.6537823164327</v>
+        <v>39.68959677148202</v>
       </c>
       <c r="O5" t="n">
-        <v>6.297124924632884</v>
+        <v>6.299967997655386</v>
       </c>
       <c r="P5" t="n">
-        <v>334.5149768153023</v>
+        <v>334.5645746359219</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12485,7 +12519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F337"/>
+  <dimension ref="A1:F338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23277,6 +23311,38 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-35.50792451972617,174.47269343945274</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-35.50854574196886,174.47316953085283</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-35.509135874803896,174.47370029437687</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-35.509729090888534,174.47422562707368</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
